--- a/data/trans_dic/P21D_2_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P21D_2_R-Provincia-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,7; 10,34</t>
+          <t>2,7; 10,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,9; 7,42</t>
+          <t>1,95; 7,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,78; 7,56</t>
+          <t>2,75; 7,33</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,32; 7,09</t>
+          <t>1,4; 6,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,89; 5,25</t>
+          <t>0,85; 5,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,55; 4,94</t>
+          <t>1,44; 4,81</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,22</t>
+          <t>0,0; 6,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 6,49</t>
+          <t>1,47; 6,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,39; 5,06</t>
+          <t>1,36; 5,11</t>
         </is>
       </c>
     </row>
@@ -734,12 +734,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,12</t>
+          <t>0,0; 2,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,4</t>
+          <t>0,0; 1,22</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,57; 9,65</t>
+          <t>2,44; 9,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,92; 8,61</t>
+          <t>1,87; 7,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,61; 7,03</t>
+          <t>2,69; 7,24</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,99</t>
+          <t>0,0; 1,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,68</t>
+          <t>0,93; 3,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,26</t>
+          <t>0,58; 2,15</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,74</t>
+          <t>0,0; 2,02</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,94; 10,51</t>
+          <t>0,99; 11,1</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,64; 5,45</t>
+          <t>0,62; 5,37</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,11; 2,44</t>
+          <t>1,12; 2,42</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,69; 4,14</t>
+          <t>1,72; 4,1</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,6; 2,94</t>
+          <t>1,55; 2,95</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P21D_2_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P21D_2_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,7; 10,53</t>
+          <t>2,7; 10,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,95; 7,42</t>
+          <t>1,9; 7,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,75; 7,33</t>
+          <t>2,78; 7,56</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,4; 6,77</t>
+          <t>1,32; 7,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,85; 5,28</t>
+          <t>0,89; 5,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,81</t>
+          <t>1,55; 4,94</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,52</t>
+          <t>0,0; 6,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,47; 6,67</t>
+          <t>1,35; 6,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,36; 5,11</t>
+          <t>1,39; 5,06</t>
         </is>
       </c>
     </row>
@@ -734,12 +734,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,57</t>
+          <t>0,0; 2,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,22</t>
+          <t>0,0; 1,4</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,44; 9,21</t>
+          <t>2,57; 9,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,87; 7,84</t>
+          <t>1,92; 8,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,69; 7,24</t>
+          <t>2,61; 7,03</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,92</t>
+          <t>0,0; 1,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,6</t>
+          <t>0,93; 3,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,15</t>
+          <t>0,58; 2,26</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,02</t>
+          <t>0,0; 1,74</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,99; 11,1</t>
+          <t>0,94; 10,51</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,62; 5,37</t>
+          <t>0,64; 5,45</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,12; 2,42</t>
+          <t>1,11; 2,44</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,72; 4,1</t>
+          <t>1,69; 4,14</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,55; 2,95</t>
+          <t>1,6; 2,94</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P21D_2_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P21D_2_R-Provincia-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>4,48%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,7; 10,34</t>
+          <t>2,52; 10,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,9; 7,42</t>
+          <t>1,9; 7,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,78; 7,56</t>
+          <t>2,65; 7,66</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,69%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,32; 7,09</t>
+          <t>1,24; 6,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,89; 5,25</t>
+          <t>0,89; 5,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,55; 4,94</t>
+          <t>1,53; 4,82</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>2,72%</t>
         </is>
       </c>
     </row>
@@ -684,12 +684,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 6,49</t>
+          <t>1,33; 6,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,39; 5,06</t>
+          <t>1,37; 5,04</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>0,32%</t>
         </is>
       </c>
     </row>
@@ -734,12 +734,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,12</t>
+          <t>0,0; 1,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,4</t>
+          <t>0,0; 1,25</t>
         </is>
       </c>
     </row>
@@ -806,12 +806,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,57; 9,65</t>
+          <t>2,53; 9,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,92; 8,61</t>
+          <t>1,92; 8,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,61; 7,03</t>
+          <t>2,6; 7,07</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>1,14%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,99</t>
+          <t>0,0; 1,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,68</t>
+          <t>0,93; 3,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,26</t>
+          <t>0,57; 2,21</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>1,27%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,74</t>
+          <t>0,0; 1,2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,94; 10,51</t>
+          <t>0,96; 9,57</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,64; 5,45</t>
+          <t>0,39; 3,9</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>1,9%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,11; 2,44</t>
+          <t>0,83; 2,33</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,69; 4,14</t>
+          <t>1,6; 3,47</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,6; 2,94</t>
+          <t>1,38; 2,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P21D_2_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P21D_2_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,52; 10,08</t>
+          <t>2,14; 9,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,9; 7,96</t>
+          <t>1,98; 7,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,65; 7,66</t>
+          <t>2,64; 7,48</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,24; 6,73</t>
+          <t>1,44; 6,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,89; 5,13</t>
+          <t>0,9; 5,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,53; 4,82</t>
+          <t>1,38; 4,62</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,22</t>
+          <t>0,0; 6,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,33; 6,45</t>
+          <t>1,37; 6,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,37; 5,04</t>
+          <t>1,29; 5,05</t>
         </is>
       </c>
     </row>
@@ -734,12 +735,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,85</t>
+          <t>0,0; 1,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,25</t>
+          <t>0,0; 1,17</t>
         </is>
       </c>
     </row>
@@ -796,7 +797,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,53; 9,64</t>
+          <t>2,55; 9,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,92; 8,64</t>
+          <t>1,96; 8,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,6; 7,07</t>
+          <t>2,77; 7,42</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,9</t>
+          <t>0,0; 1,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,72</t>
+          <t>0,85; 3,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,21</t>
+          <t>0,61; 2,18</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,2</t>
+          <t>0,0; 1,26</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,96; 9,57</t>
+          <t>0,8; 8,32</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,9</t>
+          <t>0,32; 3,67</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,83; 2,33</t>
+          <t>0,91; 2,26</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,6; 3,47</t>
+          <t>1,63; 3,58</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,38; 2,57</t>
+          <t>1,39; 2,53</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, necesitando atención sanitaria dental, no la pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7775</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4782</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>12557</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3294; 14198</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2505; 9926</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7417; 20980</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>6840</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5220</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>12061</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3038; 14127</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2132; 12396</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>6195; 20717</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1693</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4856</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6549</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5842</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1992; 9794</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3095; 12137</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1242</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1242</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2054</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4816</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4523</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1243</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 835</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1002</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>6302</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>4698</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>11001</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>3208; 11528</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2171; 9380</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>6541; 17549</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1076</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>5966</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>7042</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5033</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2607; 10840</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>3742; 13424</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>1801</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>9669</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>11469</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>0; 6965</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>2783; 29030</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>2924; 33143</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>25487</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>36433</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>61921</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>15063; 37634</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>25945; 56964</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>45105; 82350</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>